--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H2">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>291.9022013333333</v>
+        <v>0.8937520000000001</v>
       </c>
       <c r="N2">
-        <v>875.7066039999999</v>
+        <v>2.681256</v>
       </c>
       <c r="O2">
-        <v>0.3541831598682652</v>
+        <v>0.001982631228033859</v>
       </c>
       <c r="P2">
-        <v>0.3541831598682653</v>
+        <v>0.001982631228033858</v>
       </c>
       <c r="Q2">
-        <v>7135.770962664877</v>
+        <v>52.39972821203735</v>
       </c>
       <c r="R2">
-        <v>64221.9386639839</v>
+        <v>471.5975539083361</v>
       </c>
       <c r="S2">
-        <v>0.1428793381247343</v>
+        <v>0.001130586847498265</v>
       </c>
       <c r="T2">
-        <v>0.1428793381247343</v>
+        <v>0.001130586847498265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H3">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I3">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J3">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8937520000000001</v>
+        <v>449.8970896666667</v>
       </c>
       <c r="N3">
-        <v>2.681256</v>
+        <v>1349.691269</v>
       </c>
       <c r="O3">
-        <v>0.00108444508486971</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="P3">
-        <v>0.00108444508486971</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="Q3">
-        <v>21.84844629568533</v>
+        <v>26376.98737672187</v>
       </c>
       <c r="R3">
-        <v>196.636016661168</v>
+        <v>237392.8863904969</v>
       </c>
       <c r="S3">
-        <v>0.0004374708159937238</v>
+        <v>0.569115070293416</v>
       </c>
       <c r="T3">
-        <v>0.0004374708159937237</v>
+        <v>0.569115070293416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.44575933333333</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H4">
-        <v>73.337278</v>
+        <v>42.86704</v>
       </c>
       <c r="I4">
-        <v>0.4034052273345712</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J4">
-        <v>0.4034052273345712</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>531.3601173333334</v>
+        <v>0.8937520000000001</v>
       </c>
       <c r="N4">
-        <v>1594.080352</v>
+        <v>2.681256</v>
       </c>
       <c r="O4">
-        <v>0.6447323950468651</v>
+        <v>0.001982631228033859</v>
       </c>
       <c r="P4">
-        <v>0.6447323950468652</v>
+        <v>0.001982631228033858</v>
       </c>
       <c r="Q4">
-        <v>12989.50154766243</v>
+        <v>12.77083424469334</v>
       </c>
       <c r="R4">
-        <v>116905.5139289619</v>
+        <v>114.93750820224</v>
       </c>
       <c r="S4">
-        <v>0.2600884183938432</v>
+        <v>0.0002755460328001069</v>
       </c>
       <c r="T4">
-        <v>0.2600884183938432</v>
+        <v>0.0002755460328001069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>42.86704</v>
       </c>
       <c r="I5">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J5">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>291.9022013333333</v>
+        <v>449.8970896666667</v>
       </c>
       <c r="N5">
-        <v>875.7066039999999</v>
+        <v>1349.691269</v>
       </c>
       <c r="O5">
-        <v>0.3541831598682652</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="P5">
-        <v>0.3541831598682653</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="Q5">
-        <v>4170.994446881351</v>
+        <v>6428.585512874864</v>
       </c>
       <c r="R5">
-        <v>37538.95002193216</v>
+        <v>57857.26961587377</v>
       </c>
       <c r="S5">
-        <v>0.08351570264942901</v>
+        <v>0.1387044260890761</v>
       </c>
       <c r="T5">
-        <v>0.08351570264942901</v>
+        <v>0.1387044260890762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.28901333333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H6">
-        <v>42.86704</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I6">
-        <v>0.2357980618855278</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J6">
-        <v>0.2357980618855278</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,27 +809,27 @@
         <v>2.681256</v>
       </c>
       <c r="O6">
-        <v>0.00108444508486971</v>
+        <v>0.001982631228033859</v>
       </c>
       <c r="P6">
-        <v>0.00108444508486971</v>
+        <v>0.001982631228033858</v>
       </c>
       <c r="Q6">
-        <v>12.77083424469334</v>
+        <v>24.37725144203734</v>
       </c>
       <c r="R6">
-        <v>114.93750820224</v>
+        <v>219.395262978336</v>
       </c>
       <c r="S6">
-        <v>0.0002557100492335644</v>
+        <v>0.0005259683742442442</v>
       </c>
       <c r="T6">
-        <v>0.0002557100492335644</v>
+        <v>0.0005259683742442441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.28901333333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H7">
-        <v>42.86704</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I7">
-        <v>0.2357980618855278</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J7">
-        <v>0.2357980618855278</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>531.3601173333334</v>
+        <v>449.8970896666667</v>
       </c>
       <c r="N7">
-        <v>1594.080352</v>
+        <v>1349.691269</v>
       </c>
       <c r="O7">
-        <v>0.6447323950468651</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="P7">
-        <v>0.6447323950468652</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="Q7">
-        <v>7592.611801377566</v>
+        <v>12271.02650158562</v>
       </c>
       <c r="R7">
-        <v>68333.50621239809</v>
+        <v>110439.2385142706</v>
       </c>
       <c r="S7">
-        <v>0.1520266491868653</v>
+        <v>0.2647620825790528</v>
       </c>
       <c r="T7">
-        <v>0.1520266491868653</v>
+        <v>0.2647620825790529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.38374133333333</v>
+        <v>2.620337</v>
       </c>
       <c r="H8">
-        <v>64.151224</v>
+        <v>7.861011</v>
       </c>
       <c r="I8">
-        <v>0.3528756426099016</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J8">
-        <v>0.3528756426099016</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>291.9022013333333</v>
+        <v>0.8937520000000001</v>
       </c>
       <c r="N8">
-        <v>875.7066039999999</v>
+        <v>2.681256</v>
       </c>
       <c r="O8">
-        <v>0.3541831598682652</v>
+        <v>0.001982631228033859</v>
       </c>
       <c r="P8">
-        <v>0.3541831598682653</v>
+        <v>0.001982631228033858</v>
       </c>
       <c r="Q8">
-        <v>6241.961167942587</v>
+        <v>2.341931434424</v>
       </c>
       <c r="R8">
-        <v>56177.65051148328</v>
+        <v>21.077382909816</v>
       </c>
       <c r="S8">
-        <v>0.1249826101401196</v>
+        <v>5.052997349124178E-05</v>
       </c>
       <c r="T8">
-        <v>0.1249826101401196</v>
+        <v>5.052997349124178E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.38374133333333</v>
+        <v>2.620337</v>
       </c>
       <c r="H9">
-        <v>64.151224</v>
+        <v>7.861011</v>
       </c>
       <c r="I9">
-        <v>0.3528756426099016</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J9">
-        <v>0.3528756426099016</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8937520000000001</v>
+        <v>449.8970896666667</v>
       </c>
       <c r="N9">
-        <v>2.681256</v>
+        <v>1349.691269</v>
       </c>
       <c r="O9">
-        <v>0.00108444508486971</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="P9">
-        <v>0.00108444508486971</v>
+        <v>0.9980173687719661</v>
       </c>
       <c r="Q9">
-        <v>19.11176158414933</v>
+        <v>1178.881990245884</v>
       </c>
       <c r="R9">
-        <v>172.005854257344</v>
+        <v>10609.93791221296</v>
       </c>
       <c r="S9">
-        <v>0.0003826742561985482</v>
+        <v>0.02543578981042111</v>
       </c>
       <c r="T9">
-        <v>0.0003826742561985482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>21.38374133333333</v>
-      </c>
-      <c r="H10">
-        <v>64.151224</v>
-      </c>
-      <c r="I10">
-        <v>0.3528756426099016</v>
-      </c>
-      <c r="J10">
-        <v>0.3528756426099016</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>531.3601173333334</v>
-      </c>
-      <c r="N10">
-        <v>1594.080352</v>
-      </c>
-      <c r="O10">
-        <v>0.6447323950468651</v>
-      </c>
-      <c r="P10">
-        <v>0.6447323950468652</v>
-      </c>
-      <c r="Q10">
-        <v>11362.46730390565</v>
-      </c>
-      <c r="R10">
-        <v>102262.2057351509</v>
-      </c>
-      <c r="S10">
-        <v>0.2275103582135835</v>
-      </c>
-      <c r="T10">
-        <v>0.2275103582135835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.480005</v>
-      </c>
-      <c r="H11">
-        <v>1.440015</v>
-      </c>
-      <c r="I11">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="J11">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>291.9022013333333</v>
-      </c>
-      <c r="N11">
-        <v>875.7066039999999</v>
-      </c>
-      <c r="O11">
-        <v>0.3541831598682652</v>
-      </c>
-      <c r="P11">
-        <v>0.3541831598682653</v>
-      </c>
-      <c r="Q11">
-        <v>140.1145161510066</v>
-      </c>
-      <c r="R11">
-        <v>1261.03064535906</v>
-      </c>
-      <c r="S11">
-        <v>0.002805508953982302</v>
-      </c>
-      <c r="T11">
-        <v>0.002805508953982302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.480005</v>
-      </c>
-      <c r="H12">
-        <v>1.440015</v>
-      </c>
-      <c r="I12">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="J12">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.8937520000000001</v>
-      </c>
-      <c r="N12">
-        <v>2.681256</v>
-      </c>
-      <c r="O12">
-        <v>0.00108444508486971</v>
-      </c>
-      <c r="P12">
-        <v>0.00108444508486971</v>
-      </c>
-      <c r="Q12">
-        <v>0.42900542876</v>
-      </c>
-      <c r="R12">
-        <v>3.86104885884</v>
-      </c>
-      <c r="S12">
-        <v>8.589963443873689E-06</v>
-      </c>
-      <c r="T12">
-        <v>8.589963443873689E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.480005</v>
-      </c>
-      <c r="H13">
-        <v>1.440015</v>
-      </c>
-      <c r="I13">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="J13">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>531.3601173333334</v>
-      </c>
-      <c r="N13">
-        <v>1594.080352</v>
-      </c>
-      <c r="O13">
-        <v>0.6447323950468651</v>
-      </c>
-      <c r="P13">
-        <v>0.6447323950468652</v>
-      </c>
-      <c r="Q13">
-        <v>255.0555131205867</v>
-      </c>
-      <c r="R13">
-        <v>2295.49961808528</v>
-      </c>
-      <c r="S13">
-        <v>0.005106969252573161</v>
-      </c>
-      <c r="T13">
-        <v>0.005106969252573161</v>
+        <v>0.02543578981042112</v>
       </c>
     </row>
   </sheetData>
